--- a/Calc/TCINV__1.xlsx
+++ b/Calc/TCINV__1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BM\Calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5749787A-FD31-4B58-AE93-E401311337D1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3754103-2737-4051-AC2B-4030DC588690}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8190" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TCINV__1" sheetId="1" r:id="rId1"/>
     <sheet name="InvData" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>* Description *</t>
-  </si>
-  <si>
-    <t>systemDescription</t>
   </si>
   <si>
     <t>*** Begin Options Block ***</t>
@@ -202,11 +199,14 @@
   <si>
     <t>*** End Output Block ***</t>
   </si>
+  <si>
+    <t>One Layer biaxial thin film on slightly absorbing thick substrate plate.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1041,10 +1041,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF140"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -1065,22 +1067,22 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1088,7 +1090,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1096,7 +1098,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1104,45 +1106,45 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
         <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -1150,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1158,33 +1160,33 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
         <v>20</v>
       </c>
-      <c r="F22" t="s">
+      <c r="J22" t="s">
         <v>21</v>
       </c>
-      <c r="J22" t="s">
+      <c r="N22" t="s">
         <v>22</v>
       </c>
-      <c r="N22" t="s">
+      <c r="R22" t="s">
         <v>23</v>
       </c>
-      <c r="R22" t="s">
+      <c r="V22" t="s">
         <v>24</v>
       </c>
-      <c r="V22" t="s">
+      <c r="Z22" t="s">
         <v>25</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AD22" t="s">
         <v>26</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -1411,32 +1413,32 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1474,7 +1476,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1512,7 +1514,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1550,7 +1552,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1588,76 +1590,76 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" t="s">
         <v>40</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>41</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>42</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>43</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>44</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>45</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>46</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>47</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>48</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>49</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>50</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>51</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>52</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>53</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>54</v>
       </c>
-      <c r="P55" t="s">
+      <c r="Q55" t="s">
         <v>55</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="R55" t="s">
         <v>56</v>
       </c>
-      <c r="R55" t="s">
+      <c r="S55" t="s">
         <v>57</v>
-      </c>
-      <c r="S55" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -1689,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="K56">
+        <v>7</v>
+      </c>
+      <c r="L56">
         <v>-11</v>
-      </c>
-      <c r="L56">
-        <v>17</v>
       </c>
       <c r="M56">
         <v>17</v>
@@ -1742,10 +1744,10 @@
         <v>0</v>
       </c>
       <c r="K57">
+        <v>7</v>
+      </c>
+      <c r="L57">
         <v>-11</v>
-      </c>
-      <c r="L57">
-        <v>17</v>
       </c>
       <c r="M57">
         <v>17</v>
@@ -1795,10 +1797,10 @@
         <v>0</v>
       </c>
       <c r="K58">
+        <v>7</v>
+      </c>
+      <c r="L58">
         <v>-11</v>
-      </c>
-      <c r="L58">
-        <v>17</v>
       </c>
       <c r="M58">
         <v>17</v>
@@ -1848,10 +1850,10 @@
         <v>0</v>
       </c>
       <c r="K59">
+        <v>7</v>
+      </c>
+      <c r="L59">
         <v>-11</v>
-      </c>
-      <c r="L59">
-        <v>17</v>
       </c>
       <c r="M59">
         <v>17</v>
@@ -1901,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="K60">
+        <v>7</v>
+      </c>
+      <c r="L60">
         <v>-11</v>
-      </c>
-      <c r="L60">
-        <v>17</v>
       </c>
       <c r="M60">
         <v>17</v>
@@ -1954,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="K61">
+        <v>7</v>
+      </c>
+      <c r="L61">
         <v>-11</v>
-      </c>
-      <c r="L61">
-        <v>17</v>
       </c>
       <c r="M61">
         <v>17</v>
@@ -2007,10 +2009,10 @@
         <v>0</v>
       </c>
       <c r="K62">
+        <v>7</v>
+      </c>
+      <c r="L62">
         <v>-11</v>
-      </c>
-      <c r="L62">
-        <v>17</v>
       </c>
       <c r="M62">
         <v>17</v>
@@ -2060,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="K63">
+        <v>7</v>
+      </c>
+      <c r="L63">
         <v>-11</v>
-      </c>
-      <c r="L63">
-        <v>17</v>
       </c>
       <c r="M63">
         <v>17</v>
@@ -2113,10 +2115,10 @@
         <v>0</v>
       </c>
       <c r="K64">
+        <v>7</v>
+      </c>
+      <c r="L64">
         <v>-11</v>
-      </c>
-      <c r="L64">
-        <v>17</v>
       </c>
       <c r="M64">
         <v>17</v>
@@ -2166,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="K65">
+        <v>7</v>
+      </c>
+      <c r="L65">
         <v>-11</v>
-      </c>
-      <c r="L65">
-        <v>17</v>
       </c>
       <c r="M65">
         <v>17</v>
@@ -2219,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="K66">
+        <v>7</v>
+      </c>
+      <c r="L66">
         <v>-11</v>
-      </c>
-      <c r="L66">
-        <v>17</v>
       </c>
       <c r="M66">
         <v>17</v>
@@ -2272,10 +2274,10 @@
         <v>0</v>
       </c>
       <c r="K67">
+        <v>7</v>
+      </c>
+      <c r="L67">
         <v>-11</v>
-      </c>
-      <c r="L67">
-        <v>17</v>
       </c>
       <c r="M67">
         <v>17</v>
@@ -2325,10 +2327,10 @@
         <v>0</v>
       </c>
       <c r="K68">
+        <v>7</v>
+      </c>
+      <c r="L68">
         <v>-11</v>
-      </c>
-      <c r="L68">
-        <v>17</v>
       </c>
       <c r="M68">
         <v>17</v>
@@ -2378,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="K69">
+        <v>7</v>
+      </c>
+      <c r="L69">
         <v>-11</v>
-      </c>
-      <c r="L69">
-        <v>17</v>
       </c>
       <c r="M69">
         <v>17</v>
@@ -2431,10 +2433,10 @@
         <v>0</v>
       </c>
       <c r="K70">
+        <v>7</v>
+      </c>
+      <c r="L70">
         <v>-11</v>
-      </c>
-      <c r="L70">
-        <v>17</v>
       </c>
       <c r="M70">
         <v>17</v>
@@ -2484,10 +2486,10 @@
         <v>0</v>
       </c>
       <c r="K71">
+        <v>7</v>
+      </c>
+      <c r="L71">
         <v>-11</v>
-      </c>
-      <c r="L71">
-        <v>17</v>
       </c>
       <c r="M71">
         <v>17</v>
@@ -2537,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="K72">
+        <v>7</v>
+      </c>
+      <c r="L72">
         <v>-11</v>
-      </c>
-      <c r="L72">
-        <v>17</v>
       </c>
       <c r="M72">
         <v>17</v>
@@ -2590,10 +2592,10 @@
         <v>0</v>
       </c>
       <c r="K73">
+        <v>7</v>
+      </c>
+      <c r="L73">
         <v>-11</v>
-      </c>
-      <c r="L73">
-        <v>17</v>
       </c>
       <c r="M73">
         <v>17</v>
@@ -2643,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="K74">
+        <v>7</v>
+      </c>
+      <c r="L74">
         <v>-11</v>
-      </c>
-      <c r="L74">
-        <v>17</v>
       </c>
       <c r="M74">
         <v>17</v>
@@ -2696,10 +2698,10 @@
         <v>0</v>
       </c>
       <c r="K75">
+        <v>7</v>
+      </c>
+      <c r="L75">
         <v>-11</v>
-      </c>
-      <c r="L75">
-        <v>17</v>
       </c>
       <c r="M75">
         <v>17</v>
@@ -2749,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="K76">
+        <v>7</v>
+      </c>
+      <c r="L76">
         <v>-11</v>
-      </c>
-      <c r="L76">
-        <v>17</v>
       </c>
       <c r="M76">
         <v>17</v>
@@ -2802,10 +2804,10 @@
         <v>0</v>
       </c>
       <c r="K77">
+        <v>7</v>
+      </c>
+      <c r="L77">
         <v>-11</v>
-      </c>
-      <c r="L77">
-        <v>17</v>
       </c>
       <c r="M77">
         <v>17</v>
@@ -2855,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="K78">
+        <v>7</v>
+      </c>
+      <c r="L78">
         <v>-11</v>
-      </c>
-      <c r="L78">
-        <v>17</v>
       </c>
       <c r="M78">
         <v>17</v>
@@ -2908,10 +2910,10 @@
         <v>0</v>
       </c>
       <c r="K79">
+        <v>7</v>
+      </c>
+      <c r="L79">
         <v>-11</v>
-      </c>
-      <c r="L79">
-        <v>17</v>
       </c>
       <c r="M79">
         <v>17</v>
@@ -2961,10 +2963,10 @@
         <v>0</v>
       </c>
       <c r="K80">
+        <v>7</v>
+      </c>
+      <c r="L80">
         <v>-11</v>
-      </c>
-      <c r="L80">
-        <v>17</v>
       </c>
       <c r="M80">
         <v>17</v>
@@ -3014,10 +3016,10 @@
         <v>0</v>
       </c>
       <c r="K81">
+        <v>7</v>
+      </c>
+      <c r="L81">
         <v>-11</v>
-      </c>
-      <c r="L81">
-        <v>17</v>
       </c>
       <c r="M81">
         <v>17</v>
@@ -3067,10 +3069,10 @@
         <v>0</v>
       </c>
       <c r="K82">
+        <v>7</v>
+      </c>
+      <c r="L82">
         <v>-11</v>
-      </c>
-      <c r="L82">
-        <v>17</v>
       </c>
       <c r="M82">
         <v>17</v>
@@ -3120,10 +3122,10 @@
         <v>0</v>
       </c>
       <c r="K83">
+        <v>7</v>
+      </c>
+      <c r="L83">
         <v>-11</v>
-      </c>
-      <c r="L83">
-        <v>17</v>
       </c>
       <c r="M83">
         <v>17</v>
@@ -3173,10 +3175,10 @@
         <v>0</v>
       </c>
       <c r="K84">
+        <v>7</v>
+      </c>
+      <c r="L84">
         <v>-11</v>
-      </c>
-      <c r="L84">
-        <v>17</v>
       </c>
       <c r="M84">
         <v>17</v>
@@ -3226,10 +3228,10 @@
         <v>0</v>
       </c>
       <c r="K85">
+        <v>7</v>
+      </c>
+      <c r="L85">
         <v>-11</v>
-      </c>
-      <c r="L85">
-        <v>17</v>
       </c>
       <c r="M85">
         <v>17</v>
@@ -3279,10 +3281,10 @@
         <v>0</v>
       </c>
       <c r="K86">
+        <v>7</v>
+      </c>
+      <c r="L86">
         <v>-11</v>
-      </c>
-      <c r="L86">
-        <v>17</v>
       </c>
       <c r="M86">
         <v>17</v>
@@ -3332,10 +3334,10 @@
         <v>0</v>
       </c>
       <c r="K87">
+        <v>7</v>
+      </c>
+      <c r="L87">
         <v>-11</v>
-      </c>
-      <c r="L87">
-        <v>17</v>
       </c>
       <c r="M87">
         <v>17</v>
@@ -3385,10 +3387,10 @@
         <v>0</v>
       </c>
       <c r="K88">
+        <v>7</v>
+      </c>
+      <c r="L88">
         <v>-11</v>
-      </c>
-      <c r="L88">
-        <v>17</v>
       </c>
       <c r="M88">
         <v>17</v>
@@ -3438,10 +3440,10 @@
         <v>0</v>
       </c>
       <c r="K89">
+        <v>7</v>
+      </c>
+      <c r="L89">
         <v>-11</v>
-      </c>
-      <c r="L89">
-        <v>17</v>
       </c>
       <c r="M89">
         <v>17</v>
@@ -3491,10 +3493,10 @@
         <v>0</v>
       </c>
       <c r="K90">
+        <v>7</v>
+      </c>
+      <c r="L90">
         <v>-11</v>
-      </c>
-      <c r="L90">
-        <v>17</v>
       </c>
       <c r="M90">
         <v>17</v>
@@ -3544,10 +3546,10 @@
         <v>0</v>
       </c>
       <c r="K91">
+        <v>7</v>
+      </c>
+      <c r="L91">
         <v>-11</v>
-      </c>
-      <c r="L91">
-        <v>17</v>
       </c>
       <c r="M91">
         <v>17</v>
@@ -3597,10 +3599,10 @@
         <v>0</v>
       </c>
       <c r="K92">
+        <v>7</v>
+      </c>
+      <c r="L92">
         <v>-11</v>
-      </c>
-      <c r="L92">
-        <v>17</v>
       </c>
       <c r="M92">
         <v>17</v>
@@ -3650,10 +3652,10 @@
         <v>0</v>
       </c>
       <c r="K93">
+        <v>7</v>
+      </c>
+      <c r="L93">
         <v>-11</v>
-      </c>
-      <c r="L93">
-        <v>17</v>
       </c>
       <c r="M93">
         <v>17</v>
@@ -3703,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="K94">
+        <v>7</v>
+      </c>
+      <c r="L94">
         <v>-11</v>
-      </c>
-      <c r="L94">
-        <v>17</v>
       </c>
       <c r="M94">
         <v>17</v>
@@ -3756,10 +3758,10 @@
         <v>0</v>
       </c>
       <c r="K95">
+        <v>7</v>
+      </c>
+      <c r="L95">
         <v>-11</v>
-      </c>
-      <c r="L95">
-        <v>17</v>
       </c>
       <c r="M95">
         <v>17</v>
@@ -3809,10 +3811,10 @@
         <v>0</v>
       </c>
       <c r="K96">
+        <v>7</v>
+      </c>
+      <c r="L96">
         <v>-11</v>
-      </c>
-      <c r="L96">
-        <v>17</v>
       </c>
       <c r="M96">
         <v>17</v>
@@ -3862,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="K97">
+        <v>7</v>
+      </c>
+      <c r="L97">
         <v>-11</v>
-      </c>
-      <c r="L97">
-        <v>17</v>
       </c>
       <c r="M97">
         <v>17</v>
@@ -3915,10 +3917,10 @@
         <v>0</v>
       </c>
       <c r="K98">
+        <v>7</v>
+      </c>
+      <c r="L98">
         <v>-11</v>
-      </c>
-      <c r="L98">
-        <v>17</v>
       </c>
       <c r="M98">
         <v>17</v>
@@ -3968,10 +3970,10 @@
         <v>0</v>
       </c>
       <c r="K99">
+        <v>7</v>
+      </c>
+      <c r="L99">
         <v>-11</v>
-      </c>
-      <c r="L99">
-        <v>17</v>
       </c>
       <c r="M99">
         <v>17</v>
@@ -4021,10 +4023,10 @@
         <v>0</v>
       </c>
       <c r="K100">
+        <v>7</v>
+      </c>
+      <c r="L100">
         <v>-11</v>
-      </c>
-      <c r="L100">
-        <v>17</v>
       </c>
       <c r="M100">
         <v>17</v>
@@ -4074,10 +4076,10 @@
         <v>0</v>
       </c>
       <c r="K101">
+        <v>7</v>
+      </c>
+      <c r="L101">
         <v>-11</v>
-      </c>
-      <c r="L101">
-        <v>17</v>
       </c>
       <c r="M101">
         <v>17</v>
@@ -4127,10 +4129,10 @@
         <v>0</v>
       </c>
       <c r="K102">
+        <v>7</v>
+      </c>
+      <c r="L102">
         <v>-11</v>
-      </c>
-      <c r="L102">
-        <v>17</v>
       </c>
       <c r="M102">
         <v>17</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="K103">
+        <v>7</v>
+      </c>
+      <c r="L103">
         <v>-11</v>
-      </c>
-      <c r="L103">
-        <v>17</v>
       </c>
       <c r="M103">
         <v>17</v>
@@ -4233,10 +4235,10 @@
         <v>0</v>
       </c>
       <c r="K104">
+        <v>7</v>
+      </c>
+      <c r="L104">
         <v>-11</v>
-      </c>
-      <c r="L104">
-        <v>17</v>
       </c>
       <c r="M104">
         <v>17</v>
@@ -4286,10 +4288,10 @@
         <v>0</v>
       </c>
       <c r="K105">
+        <v>7</v>
+      </c>
+      <c r="L105">
         <v>-11</v>
-      </c>
-      <c r="L105">
-        <v>17</v>
       </c>
       <c r="M105">
         <v>17</v>
@@ -4339,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="K106">
+        <v>7</v>
+      </c>
+      <c r="L106">
         <v>-11</v>
-      </c>
-      <c r="L106">
-        <v>17</v>
       </c>
       <c r="M106">
         <v>17</v>
@@ -4392,10 +4394,10 @@
         <v>0</v>
       </c>
       <c r="K107">
+        <v>7</v>
+      </c>
+      <c r="L107">
         <v>-11</v>
-      </c>
-      <c r="L107">
-        <v>17</v>
       </c>
       <c r="M107">
         <v>17</v>
@@ -4445,10 +4447,10 @@
         <v>0</v>
       </c>
       <c r="K108">
+        <v>7</v>
+      </c>
+      <c r="L108">
         <v>-11</v>
-      </c>
-      <c r="L108">
-        <v>17</v>
       </c>
       <c r="M108">
         <v>17</v>
@@ -4498,10 +4500,10 @@
         <v>0</v>
       </c>
       <c r="K109">
+        <v>7</v>
+      </c>
+      <c r="L109">
         <v>-11</v>
-      </c>
-      <c r="L109">
-        <v>17</v>
       </c>
       <c r="M109">
         <v>17</v>
@@ -4551,10 +4553,10 @@
         <v>0</v>
       </c>
       <c r="K110">
+        <v>7</v>
+      </c>
+      <c r="L110">
         <v>-11</v>
-      </c>
-      <c r="L110">
-        <v>17</v>
       </c>
       <c r="M110">
         <v>17</v>
@@ -4604,10 +4606,10 @@
         <v>0</v>
       </c>
       <c r="K111">
+        <v>7</v>
+      </c>
+      <c r="L111">
         <v>-11</v>
-      </c>
-      <c r="L111">
-        <v>17</v>
       </c>
       <c r="M111">
         <v>17</v>
@@ -4657,10 +4659,10 @@
         <v>0</v>
       </c>
       <c r="K112">
+        <v>7</v>
+      </c>
+      <c r="L112">
         <v>-11</v>
-      </c>
-      <c r="L112">
-        <v>17</v>
       </c>
       <c r="M112">
         <v>17</v>
@@ -4710,10 +4712,10 @@
         <v>0</v>
       </c>
       <c r="K113">
+        <v>7</v>
+      </c>
+      <c r="L113">
         <v>-11</v>
-      </c>
-      <c r="L113">
-        <v>17</v>
       </c>
       <c r="M113">
         <v>17</v>
@@ -4763,10 +4765,10 @@
         <v>0</v>
       </c>
       <c r="K114">
+        <v>7</v>
+      </c>
+      <c r="L114">
         <v>-11</v>
-      </c>
-      <c r="L114">
-        <v>17</v>
       </c>
       <c r="M114">
         <v>17</v>
@@ -4816,10 +4818,10 @@
         <v>0</v>
       </c>
       <c r="K115">
+        <v>7</v>
+      </c>
+      <c r="L115">
         <v>-11</v>
-      </c>
-      <c r="L115">
-        <v>17</v>
       </c>
       <c r="M115">
         <v>17</v>
@@ -4869,10 +4871,10 @@
         <v>0</v>
       </c>
       <c r="K116">
+        <v>7</v>
+      </c>
+      <c r="L116">
         <v>-11</v>
-      </c>
-      <c r="L116">
-        <v>17</v>
       </c>
       <c r="M116">
         <v>17</v>
@@ -4922,10 +4924,10 @@
         <v>0</v>
       </c>
       <c r="K117">
+        <v>7</v>
+      </c>
+      <c r="L117">
         <v>-11</v>
-      </c>
-      <c r="L117">
-        <v>17</v>
       </c>
       <c r="M117">
         <v>17</v>
@@ -4975,10 +4977,10 @@
         <v>0</v>
       </c>
       <c r="K118">
+        <v>7</v>
+      </c>
+      <c r="L118">
         <v>-11</v>
-      </c>
-      <c r="L118">
-        <v>17</v>
       </c>
       <c r="M118">
         <v>17</v>
@@ -5028,10 +5030,10 @@
         <v>0</v>
       </c>
       <c r="K119">
+        <v>7</v>
+      </c>
+      <c r="L119">
         <v>-11</v>
-      </c>
-      <c r="L119">
-        <v>17</v>
       </c>
       <c r="M119">
         <v>17</v>
@@ -5081,10 +5083,10 @@
         <v>0</v>
       </c>
       <c r="K120">
+        <v>7</v>
+      </c>
+      <c r="L120">
         <v>-11</v>
-      </c>
-      <c r="L120">
-        <v>17</v>
       </c>
       <c r="M120">
         <v>17</v>
@@ -5134,10 +5136,10 @@
         <v>0</v>
       </c>
       <c r="K121">
+        <v>7</v>
+      </c>
+      <c r="L121">
         <v>-11</v>
-      </c>
-      <c r="L121">
-        <v>17</v>
       </c>
       <c r="M121">
         <v>17</v>
@@ -5187,10 +5189,10 @@
         <v>0</v>
       </c>
       <c r="K122">
+        <v>7</v>
+      </c>
+      <c r="L122">
         <v>-11</v>
-      </c>
-      <c r="L122">
-        <v>17</v>
       </c>
       <c r="M122">
         <v>17</v>
@@ -5240,10 +5242,10 @@
         <v>0</v>
       </c>
       <c r="K123">
+        <v>7</v>
+      </c>
+      <c r="L123">
         <v>-11</v>
-      </c>
-      <c r="L123">
-        <v>17</v>
       </c>
       <c r="M123">
         <v>17</v>
@@ -5293,10 +5295,10 @@
         <v>0</v>
       </c>
       <c r="K124">
+        <v>7</v>
+      </c>
+      <c r="L124">
         <v>-11</v>
-      </c>
-      <c r="L124">
-        <v>17</v>
       </c>
       <c r="M124">
         <v>17</v>
@@ -5346,10 +5348,10 @@
         <v>0</v>
       </c>
       <c r="K125">
+        <v>7</v>
+      </c>
+      <c r="L125">
         <v>-11</v>
-      </c>
-      <c r="L125">
-        <v>17</v>
       </c>
       <c r="M125">
         <v>17</v>
@@ -5399,10 +5401,10 @@
         <v>0</v>
       </c>
       <c r="K126">
+        <v>7</v>
+      </c>
+      <c r="L126">
         <v>-11</v>
-      </c>
-      <c r="L126">
-        <v>17</v>
       </c>
       <c r="M126">
         <v>17</v>
@@ -5452,10 +5454,10 @@
         <v>0</v>
       </c>
       <c r="K127">
+        <v>7</v>
+      </c>
+      <c r="L127">
         <v>-11</v>
-      </c>
-      <c r="L127">
-        <v>17</v>
       </c>
       <c r="M127">
         <v>17</v>
@@ -5505,10 +5507,10 @@
         <v>0</v>
       </c>
       <c r="K128">
+        <v>7</v>
+      </c>
+      <c r="L128">
         <v>-11</v>
-      </c>
-      <c r="L128">
-        <v>17</v>
       </c>
       <c r="M128">
         <v>17</v>
@@ -5558,10 +5560,10 @@
         <v>0</v>
       </c>
       <c r="K129">
+        <v>7</v>
+      </c>
+      <c r="L129">
         <v>-11</v>
-      </c>
-      <c r="L129">
-        <v>17</v>
       </c>
       <c r="M129">
         <v>17</v>
@@ -5611,10 +5613,10 @@
         <v>0</v>
       </c>
       <c r="K130">
+        <v>7</v>
+      </c>
+      <c r="L130">
         <v>-11</v>
-      </c>
-      <c r="L130">
-        <v>17</v>
       </c>
       <c r="M130">
         <v>17</v>
@@ -5664,10 +5666,10 @@
         <v>0</v>
       </c>
       <c r="K131">
+        <v>7</v>
+      </c>
+      <c r="L131">
         <v>-11</v>
-      </c>
-      <c r="L131">
-        <v>17</v>
       </c>
       <c r="M131">
         <v>17</v>
@@ -5717,10 +5719,10 @@
         <v>0</v>
       </c>
       <c r="K132">
+        <v>7</v>
+      </c>
+      <c r="L132">
         <v>-11</v>
-      </c>
-      <c r="L132">
-        <v>17</v>
       </c>
       <c r="M132">
         <v>17</v>
@@ -5770,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="K133">
+        <v>7</v>
+      </c>
+      <c r="L133">
         <v>-11</v>
-      </c>
-      <c r="L133">
-        <v>17</v>
       </c>
       <c r="M133">
         <v>17</v>
@@ -5823,10 +5825,10 @@
         <v>0</v>
       </c>
       <c r="K134">
+        <v>7</v>
+      </c>
+      <c r="L134">
         <v>-11</v>
-      </c>
-      <c r="L134">
-        <v>17</v>
       </c>
       <c r="M134">
         <v>17</v>
@@ -5876,10 +5878,10 @@
         <v>0</v>
       </c>
       <c r="K135">
+        <v>7</v>
+      </c>
+      <c r="L135">
         <v>-11</v>
-      </c>
-      <c r="L135">
-        <v>17</v>
       </c>
       <c r="M135">
         <v>17</v>
@@ -5929,10 +5931,10 @@
         <v>0</v>
       </c>
       <c r="K136">
+        <v>7</v>
+      </c>
+      <c r="L136">
         <v>-11</v>
-      </c>
-      <c r="L136">
-        <v>17</v>
       </c>
       <c r="M136">
         <v>17</v>
@@ -5982,10 +5984,10 @@
         <v>0</v>
       </c>
       <c r="K137">
+        <v>7</v>
+      </c>
+      <c r="L137">
         <v>-11</v>
-      </c>
-      <c r="L137">
-        <v>17</v>
       </c>
       <c r="M137">
         <v>17</v>
@@ -6035,10 +6037,10 @@
         <v>0</v>
       </c>
       <c r="K138">
+        <v>7</v>
+      </c>
+      <c r="L138">
         <v>-11</v>
-      </c>
-      <c r="L138">
-        <v>17</v>
       </c>
       <c r="M138">
         <v>17</v>
@@ -6088,10 +6090,10 @@
         <v>0</v>
       </c>
       <c r="K139">
+        <v>7</v>
+      </c>
+      <c r="L139">
         <v>-11</v>
-      </c>
-      <c r="L139">
-        <v>17</v>
       </c>
       <c r="M139">
         <v>17</v>
@@ -6114,7 +6116,7 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -6123,11 +6125,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:S85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6253,11 +6255,11 @@
       </c>
       <c r="K2" t="str">
         <f>TCINV__1!K56 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L2" t="str">
         <f>TCINV__1!L56 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M2" t="str">
         <f>TCINV__1!M56 &amp;  ", "</f>
@@ -6331,11 +6333,11 @@
       </c>
       <c r="K3" t="str">
         <f>TCINV__1!K57 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L3" t="str">
         <f>TCINV__1!L57 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M3" t="str">
         <f>TCINV__1!M57 &amp;  ", "</f>
@@ -6409,11 +6411,11 @@
       </c>
       <c r="K4" t="str">
         <f>TCINV__1!K58 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L4" t="str">
         <f>TCINV__1!L58 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M4" t="str">
         <f>TCINV__1!M58 &amp;  ", "</f>
@@ -6487,11 +6489,11 @@
       </c>
       <c r="K5" t="str">
         <f>TCINV__1!K59 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L5" t="str">
         <f>TCINV__1!L59 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M5" t="str">
         <f>TCINV__1!M59 &amp;  ", "</f>
@@ -6565,11 +6567,11 @@
       </c>
       <c r="K6" t="str">
         <f>TCINV__1!K60 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L6" t="str">
         <f>TCINV__1!L60 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M6" t="str">
         <f>TCINV__1!M60 &amp;  ", "</f>
@@ -6643,11 +6645,11 @@
       </c>
       <c r="K7" t="str">
         <f>TCINV__1!K61 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L7" t="str">
         <f>TCINV__1!L61 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M7" t="str">
         <f>TCINV__1!M61 &amp;  ", "</f>
@@ -6721,11 +6723,11 @@
       </c>
       <c r="K8" t="str">
         <f>TCINV__1!K62 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L8" t="str">
         <f>TCINV__1!L62 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M8" t="str">
         <f>TCINV__1!M62 &amp;  ", "</f>
@@ -6799,11 +6801,11 @@
       </c>
       <c r="K9" t="str">
         <f>TCINV__1!K63 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L9" t="str">
         <f>TCINV__1!L63 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M9" t="str">
         <f>TCINV__1!M63 &amp;  ", "</f>
@@ -6877,11 +6879,11 @@
       </c>
       <c r="K10" t="str">
         <f>TCINV__1!K64 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L10" t="str">
         <f>TCINV__1!L64 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M10" t="str">
         <f>TCINV__1!M64 &amp;  ", "</f>
@@ -6955,11 +6957,11 @@
       </c>
       <c r="K11" t="str">
         <f>TCINV__1!K65 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L11" t="str">
         <f>TCINV__1!L65 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M11" t="str">
         <f>TCINV__1!M65 &amp;  ", "</f>
@@ -7033,11 +7035,11 @@
       </c>
       <c r="K12" t="str">
         <f>TCINV__1!K66 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L12" t="str">
         <f>TCINV__1!L66 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M12" t="str">
         <f>TCINV__1!M66 &amp;  ", "</f>
@@ -7111,11 +7113,11 @@
       </c>
       <c r="K13" t="str">
         <f>TCINV__1!K67 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L13" t="str">
         <f>TCINV__1!L67 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M13" t="str">
         <f>TCINV__1!M67 &amp;  ", "</f>
@@ -7189,11 +7191,11 @@
       </c>
       <c r="K14" t="str">
         <f>TCINV__1!K68 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L14" t="str">
         <f>TCINV__1!L68 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M14" t="str">
         <f>TCINV__1!M68 &amp;  ", "</f>
@@ -7267,11 +7269,11 @@
       </c>
       <c r="K15" t="str">
         <f>TCINV__1!K69 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L15" t="str">
         <f>TCINV__1!L69 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M15" t="str">
         <f>TCINV__1!M69 &amp;  ", "</f>
@@ -7345,11 +7347,11 @@
       </c>
       <c r="K16" t="str">
         <f>TCINV__1!K70 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L16" t="str">
         <f>TCINV__1!L70 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M16" t="str">
         <f>TCINV__1!M70 &amp;  ", "</f>
@@ -7423,11 +7425,11 @@
       </c>
       <c r="K17" t="str">
         <f>TCINV__1!K71 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L17" t="str">
         <f>TCINV__1!L71 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M17" t="str">
         <f>TCINV__1!M71 &amp;  ", "</f>
@@ -7501,11 +7503,11 @@
       </c>
       <c r="K18" t="str">
         <f>TCINV__1!K72 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L18" t="str">
         <f>TCINV__1!L72 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M18" t="str">
         <f>TCINV__1!M72 &amp;  ", "</f>
@@ -7579,11 +7581,11 @@
       </c>
       <c r="K19" t="str">
         <f>TCINV__1!K73 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L19" t="str">
         <f>TCINV__1!L73 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M19" t="str">
         <f>TCINV__1!M73 &amp;  ", "</f>
@@ -7657,11 +7659,11 @@
       </c>
       <c r="K20" t="str">
         <f>TCINV__1!K74 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L20" t="str">
         <f>TCINV__1!L74 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M20" t="str">
         <f>TCINV__1!M74 &amp;  ", "</f>
@@ -7735,11 +7737,11 @@
       </c>
       <c r="K21" t="str">
         <f>TCINV__1!K75 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L21" t="str">
         <f>TCINV__1!L75 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M21" t="str">
         <f>TCINV__1!M75 &amp;  ", "</f>
@@ -7813,11 +7815,11 @@
       </c>
       <c r="K22" t="str">
         <f>TCINV__1!K76 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L22" t="str">
         <f>TCINV__1!L76 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M22" t="str">
         <f>TCINV__1!M76 &amp;  ", "</f>
@@ -7891,11 +7893,11 @@
       </c>
       <c r="K23" t="str">
         <f>TCINV__1!K77 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L23" t="str">
         <f>TCINV__1!L77 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M23" t="str">
         <f>TCINV__1!M77 &amp;  ", "</f>
@@ -7969,11 +7971,11 @@
       </c>
       <c r="K24" t="str">
         <f>TCINV__1!K78 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L24" t="str">
         <f>TCINV__1!L78 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M24" t="str">
         <f>TCINV__1!M78 &amp;  ", "</f>
@@ -8047,11 +8049,11 @@
       </c>
       <c r="K25" t="str">
         <f>TCINV__1!K79 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L25" t="str">
         <f>TCINV__1!L79 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M25" t="str">
         <f>TCINV__1!M79 &amp;  ", "</f>
@@ -8125,11 +8127,11 @@
       </c>
       <c r="K26" t="str">
         <f>TCINV__1!K80 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L26" t="str">
         <f>TCINV__1!L80 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M26" t="str">
         <f>TCINV__1!M80 &amp;  ", "</f>
@@ -8203,11 +8205,11 @@
       </c>
       <c r="K27" t="str">
         <f>TCINV__1!K81 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L27" t="str">
         <f>TCINV__1!L81 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M27" t="str">
         <f>TCINV__1!M81 &amp;  ", "</f>
@@ -8281,11 +8283,11 @@
       </c>
       <c r="K28" t="str">
         <f>TCINV__1!K82 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L28" t="str">
         <f>TCINV__1!L82 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M28" t="str">
         <f>TCINV__1!M82 &amp;  ", "</f>
@@ -8359,11 +8361,11 @@
       </c>
       <c r="K29" t="str">
         <f>TCINV__1!K83 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L29" t="str">
         <f>TCINV__1!L83 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M29" t="str">
         <f>TCINV__1!M83 &amp;  ", "</f>
@@ -8437,11 +8439,11 @@
       </c>
       <c r="K30" t="str">
         <f>TCINV__1!K84 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L30" t="str">
         <f>TCINV__1!L84 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M30" t="str">
         <f>TCINV__1!M84 &amp;  ", "</f>
@@ -8515,11 +8517,11 @@
       </c>
       <c r="K31" t="str">
         <f>TCINV__1!K85 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L31" t="str">
         <f>TCINV__1!L85 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M31" t="str">
         <f>TCINV__1!M85 &amp;  ", "</f>
@@ -8593,11 +8595,11 @@
       </c>
       <c r="K32" t="str">
         <f>TCINV__1!K86 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L32" t="str">
         <f>TCINV__1!L86 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M32" t="str">
         <f>TCINV__1!M86 &amp;  ", "</f>
@@ -8671,11 +8673,11 @@
       </c>
       <c r="K33" t="str">
         <f>TCINV__1!K87 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L33" t="str">
         <f>TCINV__1!L87 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M33" t="str">
         <f>TCINV__1!M87 &amp;  ", "</f>
@@ -8749,11 +8751,11 @@
       </c>
       <c r="K34" t="str">
         <f>TCINV__1!K88 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L34" t="str">
         <f>TCINV__1!L88 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M34" t="str">
         <f>TCINV__1!M88 &amp;  ", "</f>
@@ -8827,11 +8829,11 @@
       </c>
       <c r="K35" t="str">
         <f>TCINV__1!K89 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L35" t="str">
         <f>TCINV__1!L89 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M35" t="str">
         <f>TCINV__1!M89 &amp;  ", "</f>
@@ -8905,11 +8907,11 @@
       </c>
       <c r="K36" t="str">
         <f>TCINV__1!K90 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L36" t="str">
         <f>TCINV__1!L90 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M36" t="str">
         <f>TCINV__1!M90 &amp;  ", "</f>
@@ -8983,11 +8985,11 @@
       </c>
       <c r="K37" t="str">
         <f>TCINV__1!K91 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L37" t="str">
         <f>TCINV__1!L91 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M37" t="str">
         <f>TCINV__1!M91 &amp;  ", "</f>
@@ -9061,11 +9063,11 @@
       </c>
       <c r="K38" t="str">
         <f>TCINV__1!K92 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L38" t="str">
         <f>TCINV__1!L92 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M38" t="str">
         <f>TCINV__1!M92 &amp;  ", "</f>
@@ -9139,11 +9141,11 @@
       </c>
       <c r="K39" t="str">
         <f>TCINV__1!K93 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L39" t="str">
         <f>TCINV__1!L93 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M39" t="str">
         <f>TCINV__1!M93 &amp;  ", "</f>
@@ -9217,11 +9219,11 @@
       </c>
       <c r="K40" t="str">
         <f>TCINV__1!K94 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L40" t="str">
         <f>TCINV__1!L94 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M40" t="str">
         <f>TCINV__1!M94 &amp;  ", "</f>
@@ -9295,11 +9297,11 @@
       </c>
       <c r="K41" t="str">
         <f>TCINV__1!K95 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L41" t="str">
         <f>TCINV__1!L95 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M41" t="str">
         <f>TCINV__1!M95 &amp;  ", "</f>
@@ -9373,11 +9375,11 @@
       </c>
       <c r="K42" t="str">
         <f>TCINV__1!K96 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L42" t="str">
         <f>TCINV__1!L96 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M42" t="str">
         <f>TCINV__1!M96 &amp;  ", "</f>
@@ -9451,11 +9453,11 @@
       </c>
       <c r="K43" t="str">
         <f>TCINV__1!K97 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L43" t="str">
         <f>TCINV__1!L97 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M43" t="str">
         <f>TCINV__1!M97 &amp;  ", "</f>
@@ -9529,11 +9531,11 @@
       </c>
       <c r="K44" t="str">
         <f>TCINV__1!K98 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L44" t="str">
         <f>TCINV__1!L98 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M44" t="str">
         <f>TCINV__1!M98 &amp;  ", "</f>
@@ -9607,11 +9609,11 @@
       </c>
       <c r="K45" t="str">
         <f>TCINV__1!K99 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L45" t="str">
         <f>TCINV__1!L99 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M45" t="str">
         <f>TCINV__1!M99 &amp;  ", "</f>
@@ -9685,11 +9687,11 @@
       </c>
       <c r="K46" t="str">
         <f>TCINV__1!K100 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L46" t="str">
         <f>TCINV__1!L100 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M46" t="str">
         <f>TCINV__1!M100 &amp;  ", "</f>
@@ -9763,11 +9765,11 @@
       </c>
       <c r="K47" t="str">
         <f>TCINV__1!K101 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L47" t="str">
         <f>TCINV__1!L101 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M47" t="str">
         <f>TCINV__1!M101 &amp;  ", "</f>
@@ -9841,11 +9843,11 @@
       </c>
       <c r="K48" t="str">
         <f>TCINV__1!K102 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L48" t="str">
         <f>TCINV__1!L102 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M48" t="str">
         <f>TCINV__1!M102 &amp;  ", "</f>
@@ -9919,11 +9921,11 @@
       </c>
       <c r="K49" t="str">
         <f>TCINV__1!K103 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L49" t="str">
         <f>TCINV__1!L103 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M49" t="str">
         <f>TCINV__1!M103 &amp;  ", "</f>
@@ -9997,11 +9999,11 @@
       </c>
       <c r="K50" t="str">
         <f>TCINV__1!K104 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L50" t="str">
         <f>TCINV__1!L104 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M50" t="str">
         <f>TCINV__1!M104 &amp;  ", "</f>
@@ -10075,11 +10077,11 @@
       </c>
       <c r="K51" t="str">
         <f>TCINV__1!K105 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L51" t="str">
         <f>TCINV__1!L105 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M51" t="str">
         <f>TCINV__1!M105 &amp;  ", "</f>
@@ -10153,11 +10155,11 @@
       </c>
       <c r="K52" t="str">
         <f>TCINV__1!K106 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L52" t="str">
         <f>TCINV__1!L106 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M52" t="str">
         <f>TCINV__1!M106 &amp;  ", "</f>
@@ -10231,11 +10233,11 @@
       </c>
       <c r="K53" t="str">
         <f>TCINV__1!K107 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L53" t="str">
         <f>TCINV__1!L107 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M53" t="str">
         <f>TCINV__1!M107 &amp;  ", "</f>
@@ -10309,11 +10311,11 @@
       </c>
       <c r="K54" t="str">
         <f>TCINV__1!K108 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L54" t="str">
         <f>TCINV__1!L108 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M54" t="str">
         <f>TCINV__1!M108 &amp;  ", "</f>
@@ -10387,11 +10389,11 @@
       </c>
       <c r="K55" t="str">
         <f>TCINV__1!K109 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L55" t="str">
         <f>TCINV__1!L109 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M55" t="str">
         <f>TCINV__1!M109 &amp;  ", "</f>
@@ -10465,11 +10467,11 @@
       </c>
       <c r="K56" t="str">
         <f>TCINV__1!K110 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L56" t="str">
         <f>TCINV__1!L110 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M56" t="str">
         <f>TCINV__1!M110 &amp;  ", "</f>
@@ -10543,11 +10545,11 @@
       </c>
       <c r="K57" t="str">
         <f>TCINV__1!K111 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L57" t="str">
         <f>TCINV__1!L111 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M57" t="str">
         <f>TCINV__1!M111 &amp;  ", "</f>
@@ -10621,11 +10623,11 @@
       </c>
       <c r="K58" t="str">
         <f>TCINV__1!K112 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L58" t="str">
         <f>TCINV__1!L112 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M58" t="str">
         <f>TCINV__1!M112 &amp;  ", "</f>
@@ -10699,11 +10701,11 @@
       </c>
       <c r="K59" t="str">
         <f>TCINV__1!K113 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L59" t="str">
         <f>TCINV__1!L113 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M59" t="str">
         <f>TCINV__1!M113 &amp;  ", "</f>
@@ -10777,11 +10779,11 @@
       </c>
       <c r="K60" t="str">
         <f>TCINV__1!K114 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L60" t="str">
         <f>TCINV__1!L114 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M60" t="str">
         <f>TCINV__1!M114 &amp;  ", "</f>
@@ -10855,11 +10857,11 @@
       </c>
       <c r="K61" t="str">
         <f>TCINV__1!K115 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L61" t="str">
         <f>TCINV__1!L115 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M61" t="str">
         <f>TCINV__1!M115 &amp;  ", "</f>
@@ -10933,11 +10935,11 @@
       </c>
       <c r="K62" t="str">
         <f>TCINV__1!K116 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L62" t="str">
         <f>TCINV__1!L116 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M62" t="str">
         <f>TCINV__1!M116 &amp;  ", "</f>
@@ -11011,11 +11013,11 @@
       </c>
       <c r="K63" t="str">
         <f>TCINV__1!K117 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L63" t="str">
         <f>TCINV__1!L117 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M63" t="str">
         <f>TCINV__1!M117 &amp;  ", "</f>
@@ -11089,11 +11091,11 @@
       </c>
       <c r="K64" t="str">
         <f>TCINV__1!K118 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L64" t="str">
         <f>TCINV__1!L118 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M64" t="str">
         <f>TCINV__1!M118 &amp;  ", "</f>
@@ -11167,11 +11169,11 @@
       </c>
       <c r="K65" t="str">
         <f>TCINV__1!K119 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L65" t="str">
         <f>TCINV__1!L119 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M65" t="str">
         <f>TCINV__1!M119 &amp;  ", "</f>
@@ -11245,11 +11247,11 @@
       </c>
       <c r="K66" t="str">
         <f>TCINV__1!K120 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L66" t="str">
         <f>TCINV__1!L120 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M66" t="str">
         <f>TCINV__1!M120 &amp;  ", "</f>
@@ -11282,7 +11284,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="str">
-        <f t="shared" ref="A67:A88" si="2">"{" &amp; """""" &amp; ", "</f>
+        <f t="shared" ref="A67:A85" si="2">"{" &amp; """""" &amp; ", "</f>
         <v xml:space="preserve">{"", </v>
       </c>
       <c r="B67" t="str">
@@ -11323,11 +11325,11 @@
       </c>
       <c r="K67" t="str">
         <f>TCINV__1!K121 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L67" t="str">
         <f>TCINV__1!L121 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M67" t="str">
         <f>TCINV__1!M121 &amp;  ", "</f>
@@ -11338,7 +11340,7 @@
         <v xml:space="preserve">75, </v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O88" si="3">"""""" &amp;  ", "</f>
+        <f t="shared" ref="O67:O85" si="3">"""""" &amp;  ", "</f>
         <v xml:space="preserve">"", </v>
       </c>
       <c r="P67" t="str">
@@ -11401,11 +11403,11 @@
       </c>
       <c r="K68" t="str">
         <f>TCINV__1!K122 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L68" t="str">
         <f>TCINV__1!L122 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M68" t="str">
         <f>TCINV__1!M122 &amp;  ", "</f>
@@ -11479,11 +11481,11 @@
       </c>
       <c r="K69" t="str">
         <f>TCINV__1!K123 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L69" t="str">
         <f>TCINV__1!L123 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M69" t="str">
         <f>TCINV__1!M123 &amp;  ", "</f>
@@ -11557,11 +11559,11 @@
       </c>
       <c r="K70" t="str">
         <f>TCINV__1!K124 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L70" t="str">
         <f>TCINV__1!L124 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M70" t="str">
         <f>TCINV__1!M124 &amp;  ", "</f>
@@ -11635,11 +11637,11 @@
       </c>
       <c r="K71" t="str">
         <f>TCINV__1!K125 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L71" t="str">
         <f>TCINV__1!L125 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M71" t="str">
         <f>TCINV__1!M125 &amp;  ", "</f>
@@ -11713,11 +11715,11 @@
       </c>
       <c r="K72" t="str">
         <f>TCINV__1!K126 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L72" t="str">
         <f>TCINV__1!L126 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M72" t="str">
         <f>TCINV__1!M126 &amp;  ", "</f>
@@ -11791,11 +11793,11 @@
       </c>
       <c r="K73" t="str">
         <f>TCINV__1!K127 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L73" t="str">
         <f>TCINV__1!L127 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M73" t="str">
         <f>TCINV__1!M127 &amp;  ", "</f>
@@ -11869,11 +11871,11 @@
       </c>
       <c r="K74" t="str">
         <f>TCINV__1!K128 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L74" t="str">
         <f>TCINV__1!L128 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M74" t="str">
         <f>TCINV__1!M128 &amp;  ", "</f>
@@ -11947,11 +11949,11 @@
       </c>
       <c r="K75" t="str">
         <f>TCINV__1!K129 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L75" t="str">
         <f>TCINV__1!L129 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M75" t="str">
         <f>TCINV__1!M129 &amp;  ", "</f>
@@ -12025,11 +12027,11 @@
       </c>
       <c r="K76" t="str">
         <f>TCINV__1!K130 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L76" t="str">
         <f>TCINV__1!L130 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M76" t="str">
         <f>TCINV__1!M130 &amp;  ", "</f>
@@ -12103,11 +12105,11 @@
       </c>
       <c r="K77" t="str">
         <f>TCINV__1!K131 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L77" t="str">
         <f>TCINV__1!L131 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M77" t="str">
         <f>TCINV__1!M131 &amp;  ", "</f>
@@ -12181,11 +12183,11 @@
       </c>
       <c r="K78" t="str">
         <f>TCINV__1!K132 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L78" t="str">
         <f>TCINV__1!L132 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M78" t="str">
         <f>TCINV__1!M132 &amp;  ", "</f>
@@ -12259,11 +12261,11 @@
       </c>
       <c r="K79" t="str">
         <f>TCINV__1!K133 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L79" t="str">
         <f>TCINV__1!L133 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M79" t="str">
         <f>TCINV__1!M133 &amp;  ", "</f>
@@ -12337,11 +12339,11 @@
       </c>
       <c r="K80" t="str">
         <f>TCINV__1!K134 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L80" t="str">
         <f>TCINV__1!L134 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M80" t="str">
         <f>TCINV__1!M134 &amp;  ", "</f>
@@ -12415,11 +12417,11 @@
       </c>
       <c r="K81" t="str">
         <f>TCINV__1!K135 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L81" t="str">
         <f>TCINV__1!L135 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M81" t="str">
         <f>TCINV__1!M135 &amp;  ", "</f>
@@ -12493,11 +12495,11 @@
       </c>
       <c r="K82" t="str">
         <f>TCINV__1!K136 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L82" t="str">
         <f>TCINV__1!L136 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M82" t="str">
         <f>TCINV__1!M136 &amp;  ", "</f>
@@ -12571,11 +12573,11 @@
       </c>
       <c r="K83" t="str">
         <f>TCINV__1!K137 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L83" t="str">
         <f>TCINV__1!L137 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M83" t="str">
         <f>TCINV__1!M137 &amp;  ", "</f>
@@ -12649,11 +12651,11 @@
       </c>
       <c r="K84" t="str">
         <f>TCINV__1!K138 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L84" t="str">
         <f>TCINV__1!L138 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M84" t="str">
         <f>TCINV__1!M138 &amp;  ", "</f>
@@ -12727,11 +12729,11 @@
       </c>
       <c r="K85" t="str">
         <f>TCINV__1!K139 &amp;  ", "</f>
-        <v xml:space="preserve">-11, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="L85" t="str">
         <f>TCINV__1!L139 &amp;  ", "</f>
-        <v xml:space="preserve">17, </v>
+        <v xml:space="preserve">-11, </v>
       </c>
       <c r="M85" t="str">
         <f>TCINV__1!M139 &amp;  ", "</f>
@@ -12764,5 +12766,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>